--- a/meetings/7-10-2024/components.xlsx
+++ b/meetings/7-10-2024/components.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aiwendil\Desktop\SDU\1st-semester-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aiwendil\Desktop\SDU\1st-semester-project\meetings\7-10-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{563EE989-2BE0-436B-B9C2-6AAE2D371176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FAC883-C8AB-4B0D-8451-6356C9D906C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{74F5638F-AA4C-40D8-8BAE-598448F13094}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>Battery socket</t>
   </si>
   <si>
-    <t>https://dk.rs-online.com/web/p/9-v-batterier/8264435?gb=s</t>
-  </si>
-  <si>
     <t>https://dk.rs-online.com/web/p/batterikontakter/1854790?gb=s</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>https://dk.rs-online.com/web/p/arduino/1927586?gb=a</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/9-v-batterier/2095317?gb=s</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="C3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -535,7 +535,7 @@
         <v>18.5</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G11" si="0">E5*F5</f>
+        <f t="shared" ref="G5:G10" si="0">E5*F5</f>
         <v>185</v>
       </c>
     </row>
@@ -559,10 +559,10 @@
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -598,17 +598,17 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>22.545999999999999</v>
+        <v>107.15</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>112.72999999999999</v>
+        <v>107.15</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.45">
@@ -616,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -632,7 +632,7 @@
     <row r="11" spans="3:7" x14ac:dyDescent="0.45">
       <c r="G11">
         <f>SUM(G4:G10)</f>
-        <v>768.71</v>
+        <v>763.13</v>
       </c>
     </row>
   </sheetData>
